--- a/Cronogramas.xlsx
+++ b/Cronogramas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Status</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Importação e Testes do Subversion no GIT Hosting</t>
+  </si>
+  <si>
+    <t>Estudo de Backup do Git Remoto</t>
+  </si>
+  <si>
+    <t>Estudo de Backup do Git Local (Cloud)</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="[h]:mm"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -169,15 +175,15 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -185,7 +191,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -206,7 +212,7 @@
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[h]:mm"/>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -247,13 +253,16 @@
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[h]:mm"/>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[h]:mm"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[h]:mm"/>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,21 +278,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G17" totalsRowCount="1">
-  <sortState ref="A4:E9">
-    <sortCondition ref="A3:A9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G19" totalsRowCount="1">
+  <sortState ref="A4:G18">
+    <sortCondition ref="A17"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="4" name="Ordem" totalsRowLabel="Total"/>
     <tableColumn id="1" name="Etapas"/>
-    <tableColumn id="2" name="Duração (hh)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Duração (dd)" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Comma">
-      <calculatedColumnFormula>Table1[[#This Row],[Duração (hh)]]/$C$1</calculatedColumnFormula>
+    <tableColumn id="2" name="Duração (hh)" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Duração (dd)" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="3" dataCellStyle="Comma">
+      <calculatedColumnFormula xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Status" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="Percent">
       <totalsRowFormula xml:space="preserve">  IFERROR( 1 - Table1[[#Totals],[Restante (hh)]]/Table1[[#Totals],[Duração (hh)]], 0 )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Restante (hh)" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="5" name="Restante (hh)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Restante (dd)" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Comma">
@@ -591,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,11 +618,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5">
+      <c r="B1" s="8"/>
+      <c r="C1" s="4">
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -651,7 +660,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D4" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>1.5999999999999999</v>
       </c>
       <c r="E4" s="1">
@@ -674,22 +683,24 @@
         <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>0.33333333333333331</v>
+        <f xml:space="preserve"> 13 * 4 / 24</f>
+        <v>2.1666666666666665</v>
       </c>
       <c r="D5" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
-        <v>1.5999999999999999</v>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
+        <v>10.399999999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <f>4.8/13</f>
+        <v>0.3692307692307692</v>
       </c>
       <c r="F5" s="2">
         <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>0.16666666666666666</v>
+        <v>1.3666666666666665</v>
       </c>
       <c r="G5" s="3">
         <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0.79999999999999993</v>
+        <v>6.5599999999999987</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -703,7 +714,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="E6" s="1">
@@ -729,7 +740,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D7" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>1.5999999999999999</v>
       </c>
       <c r="E7" s="1">
@@ -755,7 +766,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D8" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="E8" s="1">
@@ -781,7 +792,7 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>2.4</v>
       </c>
       <c r="E9" s="1">
@@ -807,7 +818,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D10" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>0.79999999999999993</v>
       </c>
       <c r="E10" s="1">
@@ -833,19 +844,20 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D11" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>1.5999999999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.5</v>
+        <f xml:space="preserve"> AVERAGE(E4:E10)</f>
+        <v>0.48131868131868133</v>
       </c>
       <c r="F11" s="2">
         <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>0.16666666666666666</v>
+        <v>0.17289377289377286</v>
       </c>
       <c r="G11" s="3">
         <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0.79999999999999993</v>
+        <v>0.8298901098901097</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -859,13 +871,13 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D12" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>0.79999999999999993</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
         <v>0.16666666666666666</v>
       </c>
@@ -885,13 +897,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D13" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -911,13 +923,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D14" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -937,13 +949,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D15" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -963,13 +975,13 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="3">
-        <f>Table1[[#This Row],[Duração (hh)]]/$C$1</f>
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>1.2</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
         <v>0.25</v>
       </c>
@@ -979,36 +991,78 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C19" s="2">
         <f>SUBTOTAL(109,Table1[Duração (hh)])</f>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="D17" s="6">
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="D19" s="5">
         <f>SUBTOTAL(109,Table1[Duração (dd)])</f>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="E17" s="7">
+        <v>22.399999999999995</v>
+      </c>
+      <c r="E19" s="6">
         <f xml:space="preserve">  IFERROR( 1 - Table1[[#Totals],[Restante (hh)]]/Table1[[#Totals],[Duração (hh)]], 0 )</f>
-        <v>0.42647058823529427</v>
-      </c>
-      <c r="F17" s="2">
+        <v>0.39330847723704854</v>
+      </c>
+      <c r="F19" s="2">
         <f>SUBTOTAL(109,Table1[Restante (hh)])</f>
-        <v>1.6249999999999998</v>
-      </c>
-      <c r="G17" s="6">
+        <v>2.8312271062271064</v>
+      </c>
+      <c r="G19" s="5">
         <f>SUBTOTAL(109,Table1[Restante (dd)])</f>
-        <v>7.8000000000000007</v>
+        <v>13.58989010989011</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E17">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="E4:E19">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1040,7 +1094,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E4:E17</xm:sqref>
+          <xm:sqref>E4:E19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Cronogramas.xlsx
+++ b/Cronogramas.xlsx
@@ -256,10 +256,10 @@
       <numFmt numFmtId="164" formatCode="[h]:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[h]:mm"/>
@@ -286,13 +286,13 @@
     <tableColumn id="4" name="Ordem" totalsRowLabel="Total"/>
     <tableColumn id="1" name="Etapas"/>
     <tableColumn id="2" name="Duração (hh)" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Duração (dd)" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="7" name="Duração (dd)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Status" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="Percent">
       <totalsRowFormula xml:space="preserve">  IFERROR( 1 - Table1[[#Totals],[Restante (hh)]]/Table1[[#Totals],[Duração (hh)]], 0 )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Restante (hh)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1">
+    <tableColumn id="5" name="Restante (hh)" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Restante (dd)" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Comma">
@@ -603,7 +603,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,16 +691,16 @@
         <v>10.399999999999999</v>
       </c>
       <c r="E5" s="1">
-        <f>4.8/13</f>
-        <v>0.3692307692307692</v>
+        <f xml:space="preserve"> 5.1 / 13</f>
+        <v>0.3923076923076923</v>
       </c>
       <c r="F5" s="2">
         <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>1.3666666666666665</v>
+        <v>1.3166666666666667</v>
       </c>
       <c r="G5" s="3">
         <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>6.5599999999999987</v>
+        <v>6.3199999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -849,15 +849,15 @@
       </c>
       <c r="E11" s="1">
         <f xml:space="preserve"> AVERAGE(E4:E10)</f>
-        <v>0.48131868131868133</v>
+        <v>0.48461538461538461</v>
       </c>
       <c r="F11" s="2">
         <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>0.17289377289377286</v>
+        <v>0.17179487179487177</v>
       </c>
       <c r="G11" s="3">
         <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0.8298901098901097</v>
+        <v>0.82461538461538442</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1046,15 +1046,15 @@
       </c>
       <c r="E19" s="6">
         <f xml:space="preserve">  IFERROR( 1 - Table1[[#Totals],[Restante (hh)]]/Table1[[#Totals],[Duração (hh)]], 0 )</f>
-        <v>0.39330847723704854</v>
+        <v>0.40425824175824165</v>
       </c>
       <c r="F19" s="2">
         <f>SUBTOTAL(109,Table1[Restante (hh)])</f>
-        <v>2.8312271062271064</v>
+        <v>2.7801282051282055</v>
       </c>
       <c r="G19" s="5">
         <f>SUBTOTAL(109,Table1[Restante (dd)])</f>
-        <v>13.58989010989011</v>
+        <v>13.344615384615384</v>
       </c>
     </row>
   </sheetData>

--- a/Cronogramas.xlsx
+++ b/Cronogramas.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Estudo de Estratégias de Branches</t>
   </si>
@@ -96,6 +93,36 @@
   </si>
   <si>
     <t>Estudo de Backup do Git Local (Cloud)</t>
+  </si>
+  <si>
+    <t>Data de Início</t>
+  </si>
+  <si>
+    <t>Fim Previsto</t>
+  </si>
+  <si>
+    <t>Fim Esperado</t>
+  </si>
+  <si>
+    <t>Início Esperado</t>
+  </si>
+  <si>
+    <t>% Previsto</t>
+  </si>
+  <si>
+    <t>Hoje Esperado</t>
+  </si>
+  <si>
+    <t>% Realizado</t>
+  </si>
+  <si>
+    <t>Atraso (dd)</t>
+  </si>
+  <si>
+    <t>Adiantado (dd)</t>
+  </si>
+  <si>
+    <t>Dias Esperado</t>
   </si>
 </sst>
 </file>
@@ -172,7 +199,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -184,6 +211,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -191,7 +222,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -212,6 +249,53 @@
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[h]:mm"/>
     </dxf>
     <dxf>
@@ -250,13 +334,88 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[h]:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[h]:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -278,25 +437,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G19" totalsRowCount="1">
-  <sortState ref="A4:G18">
-    <sortCondition ref="A17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:O20" totalsRowCount="1">
+  <sortState ref="A5:H19">
+    <sortCondition ref="A18"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="15">
     <tableColumn id="4" name="Ordem" totalsRowLabel="Total"/>
     <tableColumn id="1" name="Etapas"/>
-    <tableColumn id="2" name="Duração (hh)" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Duração (dd)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="2" name="Duração (hh)" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="12"/>
+    <tableColumn id="7" name="Duração (dd)" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="11" dataCellStyle="Comma">
       <calculatedColumnFormula xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Status" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="Percent">
-      <totalsRowFormula xml:space="preserve">  IFERROR( 1 - Table1[[#Totals],[Restante (hh)]]/Table1[[#Totals],[Duração (hh)]], 0 )</totalsRowFormula>
+    <tableColumn id="14" name="% Previsto" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="10" dataCellStyle="Percent">
+      <calculatedColumnFormula xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Restante (hh)" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1">
-      <calculatedColumnFormula>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</calculatedColumnFormula>
+    <tableColumn id="3" name="% Realizado" totalsRowFunction="custom" totalsRowDxfId="9" dataCellStyle="Percent">
+      <totalsRowFormula xml:space="preserve">  IFERROR( 1 - Table1[[#Totals], [Restante (hh)]] / Table1[[#Totals], [Duração (hh)]], 0 )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Restante (dd)" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Comma">
-      <calculatedColumnFormula>Table1[[#This Row],[Restante (hh)]]/$C$1</calculatedColumnFormula>
+    <tableColumn id="5" name="Restante (hh)" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="8">
+      <calculatedColumnFormula xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Restante (dd)" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7" dataCellStyle="Comma">
+      <calculatedColumnFormula xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Início Esperado" totalsRowFunction="min" dataDxfId="21" totalsRowDxfId="6">
+      <calculatedColumnFormula xml:space="preserve"> IF( ISNUMBER($O4),$O4,$C$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="Hoje Esperado" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="5">
+      <calculatedColumnFormula xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</calculatedColumnFormula>
+      <totalsRowFormula>TODAY()</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" name="Dias Esperado" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4" dataCellStyle="Comma" totalsRowCellStyle="Comma">
+      <calculatedColumnFormula xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="Fim Esperado" totalsRowFunction="max" dataDxfId="13" totalsRowDxfId="3">
+      <calculatedColumnFormula xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Atraso (dd)" totalsRowFunction="max" totalsRowDxfId="2" dataCellStyle="Comma">
+      <calculatedColumnFormula xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="Adiantado (dd)" totalsRowFunction="max" dataDxfId="19" totalsRowDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Fim Previsto" totalsRowFunction="max" dataDxfId="16" totalsRowDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -600,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,312 +796,638 @@
     <col min="2" max="2" width="47.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="10" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="4">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="M1" s="3"/>
+      <c r="O1" s="10"/>
+      <c r="R1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9">
+        <v>42940</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="O2" s="10"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M3" s="3"/>
+      <c r="O3" s="10"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D5" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="E5" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <f xml:space="preserve"> IF( ISNUMBER($O4),$O4,$C$2)</f>
+        <v>42940</v>
+      </c>
+      <c r="J5" s="10">
+        <f xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42944</v>
+      </c>
+      <c r="K5" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="10">
+        <f xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42944</v>
+      </c>
+      <c r="M5" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42944</v>
+      </c>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <f xml:space="preserve"> 13 * 4 / 24</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="D6" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="F6" s="1">
+        <f xml:space="preserve"> 5.2 / 13</f>
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="2">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
+        <v>6.2399999999999984</v>
+      </c>
+      <c r="I6" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O5),$O5,$C$2)</f>
+        <v>42944</v>
+      </c>
+      <c r="J6" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42950</v>
+      </c>
+      <c r="K6" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>17</v>
+      </c>
+      <c r="L6" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42961</v>
+      </c>
+      <c r="M6" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="N6" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42969</v>
+      </c>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E7" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="2">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O6),$O6,$C$2)</f>
+        <v>42969</v>
+      </c>
+      <c r="J7" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42969</v>
+      </c>
+      <c r="K7" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42970</v>
+      </c>
+      <c r="M7" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="O7" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42970</v>
+      </c>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D8" s="3">
         <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>1.5999999999999999</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="E8" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G8" s="2">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="H8" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
+        <v>0.71999999999999986</v>
+      </c>
+      <c r="I8" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O7),$O7,$C$2)</f>
+        <v>42970</v>
+      </c>
+      <c r="J8" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42971</v>
+      </c>
+      <c r="K8" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <f xml:space="preserve"> 13 * 4 / 24</f>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="D5" s="3">
-        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="E5" s="1">
-        <f xml:space="preserve"> 5.1 / 13</f>
-        <v>0.3923076923076923</v>
-      </c>
-      <c r="F5" s="2">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>1.3166666666666667</v>
-      </c>
-      <c r="G5" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>6.3199999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="L8" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42972</v>
+      </c>
+      <c r="M8" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>13</v>
+      </c>
+      <c r="O8" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42972</v>
+      </c>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C9" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D9" s="3">
         <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E9" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.25</v>
       </c>
-      <c r="F6" s="2">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
+      <c r="G9" s="2">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G6" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
+      <c r="H9" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="I9" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O8),$O8,$C$2)</f>
+        <v>42972</v>
+      </c>
+      <c r="J9" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42972</v>
+      </c>
+      <c r="K9" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>3</v>
+      </c>
+      <c r="L9" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42975</v>
+      </c>
+      <c r="M9" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>14</v>
+      </c>
+      <c r="O9" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42975</v>
+      </c>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
+        <v>2.4</v>
+      </c>
+      <c r="E10" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="2">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O9),$O9,$C$2)</f>
+        <v>42975</v>
+      </c>
+      <c r="J10" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42976</v>
+      </c>
+      <c r="K10" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>3</v>
+      </c>
+      <c r="L10" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42978</v>
+      </c>
+      <c r="M10" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>18</v>
+      </c>
+      <c r="O10" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42978</v>
+      </c>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D11" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="E11" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G11" s="2">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
+        <v>7.4999999999999983E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="I11" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O10),$O10,$C$2)</f>
+        <v>42978</v>
+      </c>
+      <c r="J11" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42978</v>
+      </c>
+      <c r="K11" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="L11" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42979</v>
+      </c>
+      <c r="M11" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>20</v>
+      </c>
+      <c r="O11" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42979</v>
+      </c>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D12" s="3">
         <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>1.5999999999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E12" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f xml:space="preserve"> AVERAGE(F5:F11)</f>
         <v>0.5</v>
       </c>
-      <c r="F7" s="2">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
+      <c r="G12" s="2">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G7" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
+      <c r="H12" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
         <v>0.79999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D8" s="3">
-        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F8" s="2">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G8" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="3">
-        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
-        <v>2.4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="2">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="I12" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O11),$O11,$C$2)</f>
+        <v>42979</v>
+      </c>
+      <c r="J12" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42982</v>
+      </c>
+      <c r="K12" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>4</v>
+      </c>
+      <c r="L12" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42983</v>
+      </c>
+      <c r="M12" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>24</v>
+      </c>
+      <c r="O12" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42983</v>
+      </c>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D13" s="3">
         <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="2">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G10" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0.39999999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D11" s="3">
-        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="E11" s="1">
-        <f xml:space="preserve"> AVERAGE(E4:E10)</f>
-        <v>0.48461538461538461</v>
-      </c>
-      <c r="F11" s="2">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>0.17179487179487177</v>
-      </c>
-      <c r="G11" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0.82461538461538442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="E13" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D12" s="3">
-        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
+      <c r="H13" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G12" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="I13" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O12),$O12,$C$2)</f>
+        <v>42983</v>
+      </c>
+      <c r="J13" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42983</v>
+      </c>
+      <c r="K13" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42984</v>
+      </c>
+      <c r="M13" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42984</v>
+      </c>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G13" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0.39999999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>11</v>
-      </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <v>8.3333333333333329E-2</v>
@@ -927,23 +1437,56 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G14" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
+      <c r="H14" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
         <v>0.39999999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O13),$O13,$C$2)</f>
+        <v>42984</v>
+      </c>
+      <c r="J14" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42984</v>
+      </c>
+      <c r="K14" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42985</v>
+      </c>
+      <c r="M14" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42985</v>
+      </c>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <v>8.3333333333333329E-2</v>
@@ -953,67 +1496,171 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G15" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
+      <c r="H15" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
         <v>0.39999999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O14),$O14,$C$2)</f>
+        <v>42985</v>
+      </c>
+      <c r="J15" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42985</v>
+      </c>
+      <c r="K15" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42986</v>
+      </c>
+      <c r="M15" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42986</v>
+      </c>
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>0.25</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D16" s="3">
         <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
-        <v>1.2</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="I16" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O15),$O15,$C$2)</f>
+        <v>42986</v>
+      </c>
+      <c r="J16" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42986</v>
+      </c>
+      <c r="K16" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>3</v>
+      </c>
+      <c r="L16" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42989</v>
+      </c>
+      <c r="M16" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42989</v>
+      </c>
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2">
         <v>0.25</v>
       </c>
-      <c r="G16" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2"/>
       <c r="D17" s="3">
         <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+      <c r="E17" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
+        <v>1.2</v>
+      </c>
+      <c r="I17" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O16),$O16,$C$2)</f>
+        <v>42989</v>
+      </c>
+      <c r="J17" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42989</v>
+      </c>
+      <c r="K17" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42991</v>
+      </c>
+      <c r="M17" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42991</v>
+      </c>
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1023,46 +1670,167 @@
         <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
         <v>0</v>
       </c>
-      <c r="F18" s="7">
-        <f>Table1[[#This Row],[Duração (hh)]]*(1-Table1[[#This Row],[Status]])</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <f>Table1[[#This Row],[Restante (hh)]]/$C$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="E18" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O17),$O17,$C$2)</f>
+        <v>42991</v>
+      </c>
+      <c r="J18" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42991</v>
+      </c>
+      <c r="K18" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42991</v>
+      </c>
+      <c r="M18" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42991</v>
+      </c>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] / $C$1</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f ca="1" xml:space="preserve"> IF( TODAY() &lt; Table1[[#This Row],[Início Esperado]], 0, IF( TODAY() &gt; Table1[[#This Row],[Fim Esperado]], 1, ( TODAY() - Table1[[#This Row],[Início Esperado]] ) / ( Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]] ) ) )</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f xml:space="preserve"> Table1[[#This Row],[Duração (hh)]] * ( 1 - Table1[[#This Row],[% Realizado]] )</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f xml:space="preserve"> Table1[[#This Row],[Restante (hh)]] / $C$1</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <f ca="1" xml:space="preserve"> IF( ISNUMBER($O18),$O18,$C$2)</f>
+        <v>42991</v>
+      </c>
+      <c r="J19" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], Table1[[#This Row],[% Realizado]] * ROUNDUP(Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42991</v>
+      </c>
+      <c r="K19" s="3">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] - Table1[[#This Row],[Início Esperado]]</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <f ca="1" xml:space="preserve"> WORKDAY( Table1[[#This Row],[Início Esperado]], ROUNDUP( Table1[[#This Row],[Duração (dd)]], 0 ) )</f>
+        <v>42991</v>
+      </c>
+      <c r="M19" s="3">
+        <f ca="1" xml:space="preserve"> IF( Table1[[#This Row],[% Realizado]] &lt; Table1[[#This Row],[% Previsto]], TODAY() - Table1[[#This Row],[Hoje Esperado]], 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <f ca="1" xml:space="preserve"> IF(  Table1[[#This Row],[% Previsto]] &lt; Table1[[#This Row],[% Realizado]], Table1[[#This Row],[Hoje Esperado]] - TODAY(), 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <f ca="1" xml:space="preserve"> Table1[[#This Row],[Fim Esperado]] + Table1[[#This Row],[Atraso (dd)]]</f>
+        <v>42991</v>
+      </c>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
         <f>SUBTOTAL(109,Table1[Duração (hh)])</f>
-        <v>4.6666666666666661</v>
-      </c>
-      <c r="D19" s="5">
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="D20" s="5">
         <f>SUBTOTAL(109,Table1[Duração (dd)])</f>
-        <v>22.399999999999995</v>
-      </c>
-      <c r="E19" s="6">
-        <f xml:space="preserve">  IFERROR( 1 - Table1[[#Totals],[Restante (hh)]]/Table1[[#Totals],[Duração (hh)]], 0 )</f>
-        <v>0.40425824175824165</v>
-      </c>
-      <c r="F19" s="2">
+        <v>23.999999999999996</v>
+      </c>
+      <c r="E20" s="6">
+        <f ca="1">SUBTOTAL(101,Table1[% Previsto])</f>
+        <v>0.12156862745098039</v>
+      </c>
+      <c r="F20" s="6">
+        <f xml:space="preserve">  IFERROR( 1 - Table1[[#Totals], [Restante (hh)]] / Table1[[#Totals], [Duração (hh)]], 0 )</f>
+        <v>0.45333333333333325</v>
+      </c>
+      <c r="G20" s="2">
         <f>SUBTOTAL(109,Table1[Restante (hh)])</f>
-        <v>2.7801282051282055</v>
-      </c>
-      <c r="G19" s="5">
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="H20" s="5">
         <f>SUBTOTAL(109,Table1[Restante (dd)])</f>
-        <v>13.344615384615384</v>
-      </c>
+        <v>13.12</v>
+      </c>
+      <c r="I20" s="10">
+        <f ca="1">SUBTOTAL(105,Table1[Início Esperado])</f>
+        <v>42940</v>
+      </c>
+      <c r="J20" s="10">
+        <f ca="1">TODAY()</f>
+        <v>42958</v>
+      </c>
+      <c r="K20" s="12">
+        <f ca="1">SUBTOTAL(109,Table1[Dias Esperado])</f>
+        <v>43</v>
+      </c>
+      <c r="L20" s="10">
+        <f ca="1">SUBTOTAL(104,Table1[Fim Esperado])</f>
+        <v>42991</v>
+      </c>
+      <c r="M20" s="5">
+        <f ca="1">SUBTOTAL(104,Table1[Atraso (dd)])</f>
+        <v>8</v>
+      </c>
+      <c r="N20" s="11">
+        <f ca="1">SUBTOTAL(104,Table1[Adiantado (dd)])</f>
+        <v>24</v>
+      </c>
+      <c r="O20" s="10">
+        <f ca="1">SUBTOTAL(104,Table1[Fim Previsto])</f>
+        <v>42991</v>
+      </c>
+      <c r="R20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E19">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="F5:F20">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1071,6 +1839,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8F8B0692-CD0B-41F1-B86E-5CEE1613EADA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E20">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{80438F3F-9F7F-4226-A52C-93F780E94A20}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1094,7 +1876,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E4:E19</xm:sqref>
+          <xm:sqref>F5:F20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{80438F3F-9F7F-4226-A52C-93F780E94A20}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E5:E20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
